--- a/deploy1.1/backend/uploads/data.xlsx
+++ b/deploy1.1/backend/uploads/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/cuong_dn210141_sis_hust_edu_vn/Documents/GIT/BÀI-TẬP-IELTS/MiniProd_ContentEngFlow_IELTSStepUpE_T102024/CheckPoint/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/cuong_dn210141_sis_hust_edu_vn/Documents/GIT/MiniProd_ContentEngFlow_IELTSStepUpE_T102024/deploy1.1/backend/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{741791AC-0435-499B-B3E4-7359D468C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBBD4B17-0410-435A-BF78-D865A973C9EE}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{741791AC-0435-499B-B3E4-7359D468C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8070A438-5F85-4944-A98E-7EA3375578A8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>MAIN QUESTION</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
     <t>prompt_ipa</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Aubrey and Isaac, engineers, at a construction site</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
 </sst>
 </file>
@@ -511,25 +511,25 @@
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="26.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="60.85546875" style="1" customWidth="1"/>
+    <col min="11" max="12" width="9.109375" style="1"/>
+    <col min="13" max="13" width="60.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
@@ -555,16 +555,16 @@
         <v>8</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:16" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -578,25 +578,25 @@
 Situation: Sarah and Tom, neighbors, at a community park</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K2" s="2" t="str">
         <f>"Topic: "&amp;E2&amp;"
@@ -617,7 +617,7 @@
         <v>curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": "Nuclear family","voice": "en-CA-ClaraNeural","speed": 1}' --output 1/ipa.mp3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -631,25 +631,25 @@
 Situation: Aubrey and Isaac, engineers, at a construction site</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K3" s="2" t="str">
         <f t="shared" ref="K3" si="1">"Topic: "&amp;E3&amp;"
@@ -670,13 +670,13 @@
         <v>curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": "Generational family","voice": "en-CA-ClaraNeural","speed": 1}' --output 2/ipa.mp3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G6" s="7"/>
     </row>
   </sheetData>

--- a/deploy1.1/backend/uploads/data.xlsx
+++ b/deploy1.1/backend/uploads/data.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/cuong_dn210141_sis_hust_edu_vn/Documents/GIT/MiniProd_ContentEngFlow_IELTSStepUpE_T102024/deploy1.1/backend/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/cuong_dn210141_sis_hust_edu_vn/Documents/Data Manager/XONG XÓA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{741791AC-0435-499B-B3E4-7359D468C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8070A438-5F85-4944-A98E-7EA3375578A8}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_690C9FCDAE3DB4E6AB6EC90AFCAE670FAE24A5A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE08523C-205E-43CE-AB78-18DAFEA346C0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,7 +31,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+  <si>
+    <t>order</t>
+  </si>
   <si>
     <t>prompt</t>
   </si>
@@ -42,7 +42,25 @@
     <t>first</t>
   </si>
   <si>
-    <t>order</t>
+    <t>MAIN QUESTION</t>
+  </si>
+  <si>
+    <t>vocabulary</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>prompt_meaning</t>
+  </si>
+  <si>
+    <t>prompt_ipa</t>
+  </si>
+  <si>
+    <t>prompt_image</t>
+  </si>
+  <si>
+    <t>vocabulary1</t>
   </si>
   <si>
     <t>You are now a award-winning writer. You write  conversations between a man an a woman.
@@ -63,37 +81,6 @@
 [{"situation":"brief desctiption of 2 people name, their relation, where they are","situation_en":"translate situation to English","conversation":[{"role":"&lt;gender&gt;_1","content":"their dialog","translation_en":"English translation"},{"role":"&lt;other_gender&gt;_1","content":"their dialog","translation_en":"English translation"},{"role":"&lt;gender&gt;_2","content":"their dialog","translation_en":"English translation"},{"role":"&lt;other_gender&gt;_2","content":"their dialog","translation_en":"English translation"}]}]</t>
   </si>
   <si>
-    <t xml:space="preserve">curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": </t>
-  </si>
-  <si>
-    <t xml:space="preserve">,"voice": "en-CA-ClaraNeural","speed": 1}' --output </t>
-  </si>
-  <si>
-    <t>vocabulary</t>
-  </si>
-  <si>
-    <t>situation</t>
-  </si>
-  <si>
-    <t>prompt_meaning</t>
-  </si>
-  <si>
-    <t>MAIN QUESTION</t>
-  </si>
-  <si>
-    <t>prompt_ipa</t>
-  </si>
-  <si>
-    <t>You are now a English teach, from given english word, you give me Vietnamese meaning and IPA
-{"meaning":"&lt;vietnamese meaning","ipa":&lt;English IPA transcript&gt;"}</t>
-  </si>
-  <si>
-    <t>prompt_image</t>
-  </si>
-  <si>
-    <t>vocabulary1</t>
-  </si>
-  <si>
     <t>talk about your family</t>
   </si>
   <si>
@@ -103,7 +90,7 @@
     <t>Nuclear family</t>
   </si>
   <si>
-    <t>Generational family</t>
+    <t>Sarah and Tom, neighbors, at a community park</t>
   </si>
   <si>
     <t>You are now a exercise maker. Your task is to create a yes/no question to check user's ability to understand the phrase.
@@ -117,6 +104,10 @@
 {"question":"We can drive really fast when there is a traffic jam, is that correct?","answer":"No","explain":"&lt;g&gt;traffic jam&lt;/g&gt; là tắc đường, mà tắc đường thì chịu, không phóng nhanh được"}</t>
   </si>
   <si>
+    <t>You are now a English teach, from given english word, you give me Vietnamese meaning and IPA
+{"meaning":"&lt;vietnamese meaning","ipa":&lt;English IPA transcript&gt;"}</t>
+  </si>
+  <si>
     <t>You are now a quiz image prompt generator. Base from an input, you will generate image 2 prompts, 
 - "prompt" vsualize the exact meaning of given input, so people can guess the word/phrase.
 - "opposite_prompt" will describe the same situation and concept with opposite or contrary meaning to the 'prompt' part.
@@ -124,10 +115,24 @@
 format {"prompt":"image prompt","opposite_prompt":"oppostie image prompt"}</t>
   </si>
   <si>
-    <t>Sarah and Tom, neighbors, at a community park</t>
+    <t>Topic: Family size and type
+Vocab: Nuclear family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": </t>
+  </si>
+  <si>
+    <t xml:space="preserve">,"voice": "en-CA-ClaraNeural","speed": 1}' --output </t>
+  </si>
+  <si>
+    <t>Generational family</t>
   </si>
   <si>
     <t>Aubrey and Isaac, engineers, at a construction site</t>
+  </si>
+  <si>
+    <t>Topic: Family size and type
+Vocab: Generational family</t>
   </si>
   <si>
     <t>set</t>
@@ -137,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,30 +151,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="24"/>
       <color rgb="FF2D2E2D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,7 +190,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -207,33 +224,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -280,20 +323,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -323,12 +366,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -367,320 +410,390 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="1"/>
-    <col min="13" max="13" width="60.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6">
+        <v>999</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="str">
+      <c r="C2" s="7" t="str">
         <f>"Topic: "&amp;D2&amp;" - "&amp;E2&amp;CHAR(10)&amp;"Given vocabulary: "&amp;F2&amp;CHAR(10)&amp;"Situation: "&amp;G2</f>
         <v>Topic: talk about your family - Family size and type
 Given vocabulary: Nuclear family
 Situation: Sarah and Tom, neighbors, at a community park</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <f>"Topic: "&amp;E2&amp;"
-Vocab: "&amp;F2</f>
-        <v>Topic: Family size and type
-Vocab: Nuclear family</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3"/>
-      <c r="N2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" ref="P2:P3" si="0">N2&amp;""""&amp;F2&amp;""""&amp;O2&amp;A2&amp;"/ipa.mp3"</f>
-        <v>curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": "Nuclear family","voice": "en-CA-ClaraNeural","speed": 1}' --output 1/ipa.mp3</v>
+      <c r="P2" s="10" t="str">
+        <f>N2&amp;""""&amp;F2&amp;""""&amp;O2&amp;A2&amp;"/ipa.mp3"</f>
+        <v>curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": "Nuclear family","voice": "en-CA-ClaraNeural","speed": 1}' --output 999/ipa.mp3</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+    <row r="3" spans="1:16" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="str">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="str">
         <f>"Topic: "&amp;D3&amp;" - "&amp;E3&amp;CHAR(10)&amp;"Given vocabulary: "&amp;F3&amp;CHAR(10)&amp;"Situation: "&amp;G3</f>
         <v>Topic: talk about your family - Family size and type
 Given vocabulary: Generational family
 Situation: Aubrey and Isaac, engineers, at a construction site</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f t="shared" ref="K3" si="1">"Topic: "&amp;E3&amp;"
-Vocab: "&amp;F3</f>
-        <v>Topic: Family size and type
-Vocab: Generational family</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
-      <c r="N3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" t="str">
-        <f t="shared" si="0"/>
-        <v>curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": "Generational family","voice": "en-CA-ClaraNeural","speed": 1}' --output 2/ipa.mp3</v>
+      <c r="O3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="12" t="str">
+        <f>N3&amp;""""&amp;F3&amp;""""&amp;O3&amp;A3&amp;"/ipa.MP4"</f>
+        <v>curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": "Generational family","voice": "en-CA-ClaraNeural","speed": 1}' --output 2/ipa.MP4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="7"/>
+    <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
     </row>
-    <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="7"/>
+    <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
     </row>
-    <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="7"/>
+    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/deploy1.1/backend/uploads/data.xlsx
+++ b/deploy1.1/backend/uploads/data.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/cuong_dn210141_sis_hust_edu_vn/Documents/Data Manager/XONG XÓA/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_690C9FCDAE3DB4E6AB6EC90AFCAE670FAE24A5A1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE08523C-205E-43CE-AB78-18DAFEA346C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -43,6 +26,9 @@
   </si>
   <si>
     <t>MAIN QUESTION</t>
+  </si>
+  <si>
+    <t>set</t>
   </si>
   <si>
     <t>vocabulary</t>
@@ -134,14 +120,12 @@
     <t>Topic: Family size and type
 Vocab: Generational family</t>
   </si>
-  <si>
-    <t>set</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,7 +136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -170,7 +154,7 @@
     </font>
     <font>
       <sz val="24"/>
-      <color rgb="FF2D2E2D"/>
+      <color rgb="FF2d2e2d"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -207,16 +191,16 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </bottom>
       <diagonal/>
     </border>
@@ -224,65 +208,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="17">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,10 +277,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -334,71 +318,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,7 +410,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -449,11 +433,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -462,13 +446,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -478,7 +462,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -487,7 +471,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -496,7 +480,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -504,10 +488,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -572,34 +556,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="14" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="55.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="22.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="21.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="34.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="15" width="60.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,185 +598,177 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="2193" customFormat="1" s="1">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <f>"Topic: "&amp;D2&amp;" - "&amp;E2&amp;CHAR(10)&amp;"Given vocabulary: "&amp;F2&amp;CHAR(10)&amp;"Situation: "&amp;G2</f>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="9">
+        <f>N2&amp;""""&amp;F2&amp;""""&amp;O2&amp;A2&amp;"/ipa.mp3"</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="409.6000000000001" customFormat="1" s="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <f>"Topic: "&amp;D3&amp;" - "&amp;E3&amp;CHAR(10)&amp;"Given vocabulary: "&amp;F3&amp;CHAR(10)&amp;"Situation: "&amp;G3</f>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="11">
+        <f>N3&amp;""""&amp;F3&amp;""""&amp;O3&amp;A3&amp;"/ipa.MP4"</f>
+      </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6">
-        <v>999</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="str">
-        <f>"Topic: "&amp;D2&amp;" - "&amp;E2&amp;CHAR(10)&amp;"Given vocabulary: "&amp;F2&amp;CHAR(10)&amp;"Situation: "&amp;G2</f>
-        <v>Topic: talk about your family - Family size and type
-Given vocabulary: Nuclear family
-Situation: Sarah and Tom, neighbors, at a community park</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="10" t="str">
-        <f>N2&amp;""""&amp;F2&amp;""""&amp;O2&amp;A2&amp;"/ipa.mp3"</f>
-        <v>curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": "Nuclear family","voice": "en-CA-ClaraNeural","speed": 1}' --output 999/ipa.mp3</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
-    <row r="3" spans="1:16" ht="409.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7" t="str">
-        <f>"Topic: "&amp;D3&amp;" - "&amp;E3&amp;CHAR(10)&amp;"Given vocabulary: "&amp;F3&amp;CHAR(10)&amp;"Situation: "&amp;G3</f>
-        <v>Topic: talk about your family - Family size and type
-Given vocabulary: Generational family
-Situation: Aubrey and Isaac, engineers, at a construction site</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="12" t="str">
-        <f>N3&amp;""""&amp;F3&amp;""""&amp;O3&amp;A3&amp;"/ipa.MP4"</f>
-        <v>curl -L -X POST 'http://103.253.20.13:25010/api/text-to-speech' -H 'Content-Type: application/json' -d '{"text": "Generational family","voice": "en-CA-ClaraNeural","speed": 1}' --output 2/ipa.MP4</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
     </row>
-    <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-    </row>
-    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
